--- a/notes/ScalaDays/Workbook1.xlsx
+++ b/notes/ScalaDays/Workbook1.xlsx
@@ -138,7 +138,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -154,12 +154,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -167,6 +172,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -174,6 +180,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -719,14 +726,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="E26">
+        <v>800</v>
+      </c>
+      <c r="F26">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="E27">
+        <v>600</v>
+      </c>
+      <c r="F27">
+        <f>F26/E26*E27</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="E30">
+        <v>674</v>
+      </c>
+      <c r="F30" s="2">
+        <f>0.8*E30</f>
+        <v>539.20000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="E31">
+        <v>819</v>
+      </c>
+      <c r="F31" s="2">
+        <f>0.8*E31</f>
+        <v>655.20000000000005</v>
       </c>
     </row>
   </sheetData>
